--- a/Fase 1/Evidencias Grupales/GANTT. DATACENSUSxlsx.xlsx
+++ b/Fase 1/Evidencias Grupales/GANTT. DATACENSUSxlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro2015/Desktop/CATPSTONE_GRUPO_7/Fase 1/Evidencias Grupales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692F7A59-8DF4-B944-A84D-678CC92136F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB59381-2768-9E40-9A29-0C4A4AD77C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="4360" windowWidth="33600" windowHeight="20500" xr2:uid="{6B5EC84A-F089-F74A-9690-338F885488B0}"/>
+    <workbookView xWindow="2040" yWindow="11040" windowWidth="14400" windowHeight="9660" xr2:uid="{6B5EC84A-F089-F74A-9690-338F885488B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt DATACENSUS" sheetId="1" r:id="rId1"/>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F341FB0D-B17B-6D49-B504-04310506C364}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
